--- a/ajustement.xlsx
+++ b/ajustement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509285B8-C616-744A-9807-51B214B1874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F226F-110C-3B40-959A-ED5E6BC2557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="500" windowWidth="27640" windowHeight="15260" xr2:uid="{F62C2C45-9AEA-E148-949F-48A16CE4424B}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{F62C2C45-9AEA-E148-949F-48A16CE4424B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="7">
   <si>
     <t>err_d</t>
   </si>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5F155A-4346-0F41-B0E6-2A1B5DAA7E0A}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,6 +1090,566 @@
         <v>999.99</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
